--- a/public/data/soil/soil_table_mali.xlsx
+++ b/public/data/soil/soil_table_mali.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11409.1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -805,25 +805,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1282.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>449493.7</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.907</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>133.19</v>
+        <v>161.747</v>
       </c>
     </row>
     <row r="4">
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13047.4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.385</v>
+        <v>55.132</v>
       </c>
     </row>
     <row r="5">
@@ -875,25 +875,25 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6356.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>239925.8</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.802</v>
+        <v>1.353</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>92.46</v>
+        <v>185.905</v>
       </c>
     </row>
     <row r="6">
@@ -910,25 +910,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>125.1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>430997.9</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>38.838</v>
+        <v>74.716</v>
       </c>
     </row>
     <row r="7">
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>176.7</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>382222.2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>232.945</v>
+        <v>258.404</v>
       </c>
     </row>
     <row r="8">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>97756.9</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>245225.2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>69.14</v>
+        <v>76.604</v>
       </c>
       <c r="K8" t="n">
-        <v>166.393</v>
+        <v>172.574</v>
       </c>
     </row>
     <row r="9">
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>193.3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>437631.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>327.337</v>
+        <v>372.132</v>
       </c>
     </row>
     <row r="10">
@@ -1047,28 +1047,28 @@
         <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>1187.4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>5456.2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>17298.8</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>296650.3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.633</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.662</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.907</v>
+        <v>3.637</v>
       </c>
       <c r="K10" t="n">
-        <v>161.856</v>
+        <v>177.186</v>
       </c>
     </row>
     <row r="11">
@@ -1082,28 +1082,28 @@
         <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>63.6</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3278.3</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>16244.9</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>706842.7</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.391</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8.063</v>
+        <v>2.246</v>
       </c>
       <c r="K11" t="n">
-        <v>368.699</v>
+        <v>430.979</v>
       </c>
     </row>
     <row r="12">
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>62524.4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>195882.7</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>57.911</v>
+        <v>57.765</v>
       </c>
       <c r="K12" t="n">
-        <v>142.945</v>
+        <v>147.573</v>
       </c>
     </row>
     <row r="13">
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>134429.2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.708</v>
+        <v>162.748</v>
       </c>
     </row>
     <row r="14">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1546.1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.042</v>
+        <v>1.298</v>
       </c>
     </row>
     <row r="15">
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>24304.7</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3.461</v>
+        <v>40.587</v>
       </c>
     </row>
     <row r="16">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2947.7</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.203</v>
+        <v>5.271</v>
       </c>
     </row>
     <row r="17">
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2430.8</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.305</v>
+        <v>7.695</v>
       </c>
     </row>
     <row r="18">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>163.3</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>244845.9</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.072</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>173.164</v>
+        <v>169.687</v>
       </c>
     </row>
     <row r="19">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>432082.7</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>454.298</v>
+        <v>483.647</v>
       </c>
     </row>
     <row r="20">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>615.2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>146895.1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.578</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>87.985</v>
+        <v>109.043</v>
       </c>
     </row>
     <row r="21">
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>5260.6</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>510224.8</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1450,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.074</v>
+        <v>1.351</v>
       </c>
       <c r="K21" t="n">
-        <v>431.011</v>
+        <v>492.644</v>
       </c>
     </row>
     <row r="22">
@@ -1473,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>509.3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>315062.4</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.233</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>218.364</v>
+        <v>231.82</v>
       </c>
     </row>
     <row r="23">
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>173561.3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>155.776</v>
+        <v>173.573</v>
       </c>
     </row>
     <row r="24">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>75335</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>638393.6</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>42.556</v>
+        <v>45.57</v>
       </c>
       <c r="K24" t="n">
-        <v>224.261</v>
+        <v>220.098</v>
       </c>
     </row>
     <row r="25">
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2036.6</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>179960.1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>286.898</v>
+        <v>294.277</v>
       </c>
     </row>
     <row r="26">
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1740.3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>167538.1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.846</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>248.661</v>
+        <v>268.62</v>
       </c>
     </row>
     <row r="27">
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>152268.5</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>171.356</v>
+        <v>162.953</v>
       </c>
     </row>
     <row r="28">
@@ -1680,25 +1680,25 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>455659.9</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>243.39</v>
+        <v>311.62</v>
       </c>
     </row>
     <row r="29">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>234839.6</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>291.905</v>
+        <v>372.451</v>
       </c>
     </row>
     <row r="30">
@@ -1750,25 +1750,25 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>235124.9</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>216.536</v>
+        <v>234.281</v>
       </c>
     </row>
     <row r="31">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>283091.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>154.114</v>
+        <v>158.017</v>
       </c>
     </row>
     <row r="32">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>163.2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>179940.9</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>100.626</v>
+        <v>115.095</v>
       </c>
     </row>
     <row r="33">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>173862.4</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>184.514</v>
+        <v>192.708</v>
       </c>
     </row>
     <row r="34">
@@ -1890,25 +1890,25 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1899.4</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>238084.1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>250.542</v>
+        <v>274.748</v>
       </c>
     </row>
     <row r="35">
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>178466.4</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>189.764</v>
+        <v>225.247</v>
       </c>
     </row>
     <row r="36">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>64.8</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>431914.1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.081</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>278.67</v>
+        <v>258.314</v>
       </c>
     </row>
     <row r="37">
@@ -1995,25 +1995,25 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>233446.4</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>256.785</v>
+        <v>242.131</v>
       </c>
     </row>
     <row r="38">
@@ -2030,25 +2030,25 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>441.4</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>471132.8</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.207</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>392.744</v>
+        <v>380.49</v>
       </c>
     </row>
     <row r="39">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>214803.9</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>230.107</v>
+        <v>237.381</v>
       </c>
     </row>
     <row r="40">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>8572.7</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>688578.3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2115,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.86</v>
+        <v>0.812</v>
       </c>
       <c r="K40" t="n">
-        <v>443.223</v>
+        <v>495.339</v>
       </c>
     </row>
     <row r="41">
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1827.8</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>226869.9</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.572</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>239.362</v>
+        <v>257.933</v>
       </c>
     </row>
     <row r="42">
@@ -2170,25 +2170,25 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>65.9</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2084.4</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>319997.8</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>213.429</v>
+        <v>221.376</v>
       </c>
     </row>
     <row r="43">
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>8453.2</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>387131.6</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>10.583</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>427.802</v>
+        <v>431.874</v>
       </c>
     </row>
     <row r="44">
@@ -2240,25 +2240,25 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2416.4</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2190.7</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>572699.4</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.123</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>477.326</v>
+        <v>491.341</v>
       </c>
     </row>
     <row r="45">
@@ -2272,28 +2272,28 @@
         <v>73</v>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>43.4</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>7694.3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>277566.2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.377</v>
+        <v>1.616</v>
       </c>
       <c r="K45" t="n">
-        <v>171.564</v>
+        <v>182.897</v>
       </c>
     </row>
     <row r="46">
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>185143</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>210.614</v>
+        <v>222.334</v>
       </c>
     </row>
     <row r="47">
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>66238.9</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>76.962</v>
+        <v>84.221</v>
       </c>
     </row>
     <row r="48">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>232760.8</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>62.676</v>
+        <v>123.765</v>
       </c>
     </row>
     <row r="49">
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>560537.4</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>70.348</v>
+        <v>143.125</v>
       </c>
     </row>
     <row r="50">
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>208366.9</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>168.587</v>
+        <v>192.685</v>
       </c>
     </row>
     <row r="51">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>14797</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>8.665</v>
+        <v>23.07</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_mali.xlsx
+++ b/public/data/soil/soil_table_mali.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>12001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>524.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5379.1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3623.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>56341.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>68567.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>129047.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>71762.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>7620.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>147671.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>18756.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>55718.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>12585.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>210554.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>385283</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>33931.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>212840.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>207403.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>134373.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>15696.6</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>54813</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>96288.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>322720.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>79894.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>27725</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>199030.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>83931.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>66944.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>12882.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>202651.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>287143.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>30195.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>33161</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>242604.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>176435.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>251077.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>799.8</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>315710</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>123572</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>138567.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>521684.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>378025.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2278,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>245.4</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>40772.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>250074.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>23077.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>38278.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>24976.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>35987.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>8784.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
